--- a/tests/data/PCR-run1.xlsx
+++ b/tests/data/PCR-run1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/nyoungblut/dev/pyTecanFluent/tests/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="SYBR" sheetId="1" r:id="rId1"/>
@@ -17,18 +12,18 @@
   </sheets>
   <calcPr calcId="140001" iterateCount="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="147">
   <si>
     <t>Well</t>
   </si>
@@ -456,7 +451,19 @@
     <t>Soil2</t>
   </si>
   <si>
-    <t>DNAx blank</t>
+    <t>labware_name</t>
+  </si>
+  <si>
+    <t>labware_type</t>
+  </si>
+  <si>
+    <t>Plate 1</t>
+  </si>
+  <si>
+    <t>96 Well Eppendorf TwinTec PCR</t>
+  </si>
+  <si>
+    <t>DNAx_blank</t>
   </si>
 </sst>
 </file>
@@ -587,8 +594,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -799,7 +814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -819,6 +834,7 @@
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -838,6 +854,7 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1172,34 +1189,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" state="frozen"/>
-      <selection activeCell="H91" sqref="H91"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C82" state="frozen"/>
+      <selection activeCell="F94" sqref="F94"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="1.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="7" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="7" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" style="8" customWidth="1"/>
     <col min="8" max="8" width="12" style="9" customWidth="1"/>
     <col min="9" max="9" width="15" style="7" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="7" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10" style="1"/>
+    <col min="10" max="10" width="10.3984375" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1231,8 +1249,14 @@
       <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1287,14 @@
       <c r="K2" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1295,8 +1325,14 @@
       <c r="K3" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="B4" s="6" t="s">
         <v>18</v>
       </c>
@@ -1324,8 +1360,14 @@
       <c r="K4" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1353,8 +1395,14 @@
       <c r="K5" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
@@ -1382,8 +1430,14 @@
       <c r="K6" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
@@ -1411,8 +1465,14 @@
       <c r="K7" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
@@ -1440,8 +1500,14 @@
       <c r="K8" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
@@ -1469,8 +1535,14 @@
       <c r="K9" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="B10" s="6" t="s">
         <v>24</v>
       </c>
@@ -1498,8 +1570,14 @@
       <c r="K10" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1605,14 @@
       <c r="K11" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="B12" s="6" t="s">
         <v>26</v>
       </c>
@@ -1556,8 +1640,14 @@
       <c r="K12" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
@@ -1585,8 +1675,14 @@
       <c r="K13" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
@@ -1617,8 +1713,14 @@
       <c r="K14" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1649,8 +1751,14 @@
       <c r="K15" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
@@ -1678,8 +1786,14 @@
       <c r="K16" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="15" customHeight="1">
       <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
@@ -1707,8 +1821,14 @@
       <c r="K17" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1">
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
@@ -1736,8 +1856,14 @@
       <c r="K18" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="15" customHeight="1">
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1765,8 +1891,14 @@
       <c r="K19" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15" customHeight="1">
       <c r="B20" s="6" t="s">
         <v>34</v>
       </c>
@@ -1794,8 +1926,14 @@
       <c r="K20" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15" customHeight="1">
       <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
@@ -1823,8 +1961,14 @@
       <c r="K21" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15" customHeight="1">
       <c r="B22" s="6" t="s">
         <v>36</v>
       </c>
@@ -1852,8 +1996,14 @@
       <c r="K22" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="15" customHeight="1">
       <c r="B23" s="6" t="s">
         <v>37</v>
       </c>
@@ -1881,8 +2031,14 @@
       <c r="K23" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="15" customHeight="1">
       <c r="B24" s="6" t="s">
         <v>38</v>
       </c>
@@ -1910,8 +2066,14 @@
       <c r="K24" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="15" customHeight="1">
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
@@ -1939,8 +2101,14 @@
       <c r="K25" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="15" customHeight="1">
       <c r="B26" s="6" t="s">
         <v>40</v>
       </c>
@@ -1971,8 +2139,14 @@
       <c r="K26" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="15" customHeight="1">
       <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
@@ -2003,8 +2177,14 @@
       <c r="K27" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="15" customHeight="1">
       <c r="B28" s="6" t="s">
         <v>42</v>
       </c>
@@ -2032,8 +2212,14 @@
       <c r="K28" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="15" customHeight="1">
       <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
@@ -2062,8 +2248,14 @@
       <c r="K29" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15" customHeight="1">
       <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2284,14 @@
       <c r="K30" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15" customHeight="1">
       <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
@@ -2122,8 +2320,14 @@
       <c r="K31" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="15" customHeight="1">
       <c r="B32" s="6" t="s">
         <v>46</v>
       </c>
@@ -2151,8 +2355,14 @@
       <c r="K32" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L32" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="15" customHeight="1">
       <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
@@ -2180,8 +2390,14 @@
       <c r="K33" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="15" customHeight="1">
       <c r="B34" s="6" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2425,14 @@
       <c r="K34" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L34" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="15" customHeight="1">
       <c r="B35" s="6" t="s">
         <v>49</v>
       </c>
@@ -2238,8 +2460,14 @@
       <c r="K35" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="15" customHeight="1">
       <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
@@ -2267,8 +2495,14 @@
       <c r="K36" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="15" customHeight="1">
       <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
@@ -2296,8 +2530,14 @@
       <c r="K37" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="15" customHeight="1">
       <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
@@ -2328,8 +2568,14 @@
       <c r="K38" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L38" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="15" customHeight="1">
       <c r="B39" s="6" t="s">
         <v>53</v>
       </c>
@@ -2360,8 +2606,14 @@
       <c r="K39" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L39" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="15" customHeight="1">
       <c r="B40" s="6" t="s">
         <v>54</v>
       </c>
@@ -2390,8 +2642,14 @@
       <c r="K40" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L40" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="15" customHeight="1">
       <c r="B41" s="6" t="s">
         <v>55</v>
       </c>
@@ -2420,8 +2678,14 @@
       <c r="K41" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="15" customHeight="1">
       <c r="B42" s="6" t="s">
         <v>56</v>
       </c>
@@ -2450,8 +2714,14 @@
       <c r="K42" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="15" customHeight="1">
       <c r="B43" s="6" t="s">
         <v>57</v>
       </c>
@@ -2480,8 +2750,14 @@
       <c r="K43" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="15" customHeight="1">
       <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
@@ -2509,8 +2785,14 @@
       <c r="K44" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L44" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="15" customHeight="1">
       <c r="B45" s="6" t="s">
         <v>59</v>
       </c>
@@ -2538,8 +2820,14 @@
       <c r="K45" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="15" customHeight="1">
       <c r="B46" s="6" t="s">
         <v>60</v>
       </c>
@@ -2567,8 +2855,14 @@
       <c r="K46" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="15" customHeight="1">
       <c r="B47" s="6" t="s">
         <v>61</v>
       </c>
@@ -2596,8 +2890,14 @@
       <c r="K47" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L47" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="15" customHeight="1">
       <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
@@ -2625,8 +2925,14 @@
       <c r="K48" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="15" customHeight="1">
       <c r="B49" s="6" t="s">
         <v>63</v>
       </c>
@@ -2654,8 +2960,14 @@
       <c r="K49" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="15" customHeight="1">
       <c r="B50" s="6" t="s">
         <v>64</v>
       </c>
@@ -2686,8 +2998,14 @@
       <c r="K50" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="15" customHeight="1">
       <c r="B51" s="6" t="s">
         <v>65</v>
       </c>
@@ -2718,8 +3036,14 @@
       <c r="K51" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="15" customHeight="1">
       <c r="B52" s="6" t="s">
         <v>66</v>
       </c>
@@ -2748,8 +3072,14 @@
       <c r="K52" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="15" customHeight="1">
       <c r="B53" s="6" t="s">
         <v>67</v>
       </c>
@@ -2777,8 +3107,14 @@
       <c r="K53" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="15" customHeight="1">
       <c r="B54" s="6" t="s">
         <v>68</v>
       </c>
@@ -2806,8 +3142,14 @@
       <c r="K54" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="15" customHeight="1">
       <c r="B55" s="6" t="s">
         <v>69</v>
       </c>
@@ -2835,8 +3177,14 @@
       <c r="K55" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="15" customHeight="1">
       <c r="B56" s="6" t="s">
         <v>70</v>
       </c>
@@ -2864,8 +3212,14 @@
       <c r="K56" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L56" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="15" customHeight="1">
       <c r="B57" s="6" t="s">
         <v>71</v>
       </c>
@@ -2893,8 +3247,14 @@
       <c r="K57" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L57" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="15" customHeight="1">
       <c r="B58" s="6" t="s">
         <v>72</v>
       </c>
@@ -2922,8 +3282,14 @@
       <c r="K58" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L58" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="15" customHeight="1">
       <c r="B59" s="6" t="s">
         <v>73</v>
       </c>
@@ -2951,8 +3317,14 @@
       <c r="K59" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L59" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="15" customHeight="1">
       <c r="B60" s="6" t="s">
         <v>74</v>
       </c>
@@ -2980,8 +3352,14 @@
       <c r="K60" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="15" customHeight="1">
       <c r="B61" s="6" t="s">
         <v>75</v>
       </c>
@@ -3009,8 +3387,14 @@
       <c r="K61" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L61" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="15" customHeight="1">
       <c r="B62" s="6" t="s">
         <v>76</v>
       </c>
@@ -3041,8 +3425,14 @@
       <c r="K62" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L62" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="15" customHeight="1">
       <c r="B63" s="6" t="s">
         <v>77</v>
       </c>
@@ -3073,8 +3463,14 @@
       <c r="K63" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="15" customHeight="1">
       <c r="B64" s="6" t="s">
         <v>78</v>
       </c>
@@ -3103,8 +3499,14 @@
       <c r="K64" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="15" customHeight="1">
       <c r="B65" s="6" t="s">
         <v>79</v>
       </c>
@@ -3132,8 +3534,14 @@
       <c r="K65" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="15" customHeight="1">
       <c r="B66" s="6" t="s">
         <v>80</v>
       </c>
@@ -3161,8 +3569,14 @@
       <c r="K66" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="15" customHeight="1">
       <c r="B67" s="6" t="s">
         <v>81</v>
       </c>
@@ -3190,8 +3604,14 @@
       <c r="K67" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="15" customHeight="1">
       <c r="B68" s="6" t="s">
         <v>82</v>
       </c>
@@ -3219,8 +3639,14 @@
       <c r="K68" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="15" customHeight="1">
       <c r="B69" s="6" t="s">
         <v>83</v>
       </c>
@@ -3248,8 +3674,14 @@
       <c r="K69" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="15" customHeight="1">
       <c r="B70" s="6" t="s">
         <v>84</v>
       </c>
@@ -3277,8 +3709,14 @@
       <c r="K70" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="15" customHeight="1">
       <c r="B71" s="6" t="s">
         <v>85</v>
       </c>
@@ -3306,8 +3744,14 @@
       <c r="K71" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="15" customHeight="1">
       <c r="B72" s="6" t="s">
         <v>86</v>
       </c>
@@ -3335,8 +3779,14 @@
       <c r="K72" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="15" customHeight="1">
       <c r="B73" s="6" t="s">
         <v>87</v>
       </c>
@@ -3364,8 +3814,14 @@
       <c r="K73" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="15" customHeight="1">
       <c r="B74" s="6" t="s">
         <v>88</v>
       </c>
@@ -3396,8 +3852,14 @@
       <c r="K74" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="15" customHeight="1">
       <c r="B75" s="6" t="s">
         <v>89</v>
       </c>
@@ -3428,8 +3890,14 @@
       <c r="K75" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="15" customHeight="1">
       <c r="B76" s="6" t="s">
         <v>90</v>
       </c>
@@ -3457,8 +3925,14 @@
       <c r="K76" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="15" customHeight="1">
       <c r="B77" s="6" t="s">
         <v>91</v>
       </c>
@@ -3486,8 +3960,14 @@
       <c r="K77" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="15" customHeight="1">
       <c r="B78" s="6" t="s">
         <v>92</v>
       </c>
@@ -3515,8 +3995,14 @@
       <c r="K78" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L78" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="15" customHeight="1">
       <c r="B79" s="6" t="s">
         <v>93</v>
       </c>
@@ -3544,8 +4030,14 @@
       <c r="K79" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L79" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="15" customHeight="1">
       <c r="B80" s="6" t="s">
         <v>94</v>
       </c>
@@ -3573,8 +4065,14 @@
       <c r="K80" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" ht="15" customHeight="1">
       <c r="B81" s="6" t="s">
         <v>95</v>
       </c>
@@ -3602,8 +4100,14 @@
       <c r="K81" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L81" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" ht="15" customHeight="1">
       <c r="B82" s="6" t="s">
         <v>96</v>
       </c>
@@ -3631,8 +4135,14 @@
       <c r="K82" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" ht="15" customHeight="1">
       <c r="B83" s="6" t="s">
         <v>97</v>
       </c>
@@ -3660,8 +4170,14 @@
       <c r="K83" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" ht="15" customHeight="1">
       <c r="B84" s="6" t="s">
         <v>98</v>
       </c>
@@ -3689,8 +4205,14 @@
       <c r="K84" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" ht="15" customHeight="1">
       <c r="B85" s="6" t="s">
         <v>99</v>
       </c>
@@ -3718,8 +4240,14 @@
       <c r="K85" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" ht="15" customHeight="1">
       <c r="B86" s="6" t="s">
         <v>100</v>
       </c>
@@ -3750,8 +4278,14 @@
       <c r="K86" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" ht="15" customHeight="1">
       <c r="B87" s="6" t="s">
         <v>101</v>
       </c>
@@ -3779,8 +4313,14 @@
       <c r="K87" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L87" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" ht="15" customHeight="1">
       <c r="B88" s="6" t="s">
         <v>102</v>
       </c>
@@ -3808,8 +4348,14 @@
       <c r="K88" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" ht="15" customHeight="1">
       <c r="B89" s="6" t="s">
         <v>103</v>
       </c>
@@ -3837,8 +4383,14 @@
       <c r="K89" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L89" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" ht="15" customHeight="1">
       <c r="B90" s="6" t="s">
         <v>104</v>
       </c>
@@ -3866,8 +4418,14 @@
       <c r="K90" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" ht="15" customHeight="1">
       <c r="B91" s="6" t="s">
         <v>105</v>
       </c>
@@ -3898,8 +4456,14 @@
       <c r="K91" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" ht="15" customHeight="1">
       <c r="B92" s="6" t="s">
         <v>106</v>
       </c>
@@ -3913,7 +4477,7 @@
         <v>13</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G92" s="8">
         <v>500</v>
@@ -3930,8 +4494,14 @@
       <c r="K92" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L92" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" ht="15" customHeight="1">
       <c r="B93" s="6" t="s">
         <v>107</v>
       </c>
@@ -3945,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G93" s="8">
         <v>500</v>
@@ -3962,8 +4532,14 @@
       <c r="K93" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" ht="15" customHeight="1">
       <c r="B94" s="6" t="s">
         <v>108</v>
       </c>
@@ -3977,7 +4553,7 @@
         <v>13</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G94" s="8">
         <v>500</v>
@@ -3994,8 +4570,14 @@
       <c r="K94" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L94" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="15" customHeight="1">
       <c r="B95" s="6" t="s">
         <v>109</v>
       </c>
@@ -4026,8 +4608,14 @@
       <c r="K95" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L95" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" ht="15" customHeight="1">
       <c r="B96" s="6" t="s">
         <v>110</v>
       </c>
@@ -4058,8 +4646,14 @@
       <c r="K96" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L96" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" ht="15" customHeight="1">
       <c r="B97" s="6" t="s">
         <v>111</v>
       </c>
@@ -4089,12 +4683,23 @@
       </c>
       <c r="K97" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4104,15 +4709,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="11" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.19921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" style="11" customWidth="1"/>
     <col min="3" max="3" width="10" style="11" customWidth="1"/>
     <col min="4" max="16384" width="10" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>112</v>
       </c>
@@ -4120,7 +4725,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>114</v>
       </c>
@@ -4128,17 +4733,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>118</v>
       </c>
@@ -4146,7 +4751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>120</v>
       </c>
@@ -4154,7 +4759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>122</v>
       </c>
@@ -4162,7 +4767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>123</v>
       </c>
@@ -4170,7 +4775,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>124</v>
       </c>
@@ -4178,7 +4783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>126</v>
       </c>
@@ -4186,7 +4791,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>128</v>
       </c>
@@ -4194,7 +4799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>130</v>
       </c>
@@ -4202,7 +4807,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>132</v>
       </c>
@@ -4214,5 +4819,10 @@
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="0" scale="0" pageOrder="overThenDown" orientation="portrait" blackAndWhite="1" useFirstPageNumber="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>